--- a/questions/recommended1.xlsx
+++ b/questions/recommended1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -904,26 +904,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -945,26 +945,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1273,26 +1273,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1314,26 +1314,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1478,14 +1478,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1519,14 +1519,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1560,14 +1560,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1601,14 +1601,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1847,26 +1847,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1888,27 +1888,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>18</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>18</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>36</v>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Greece</t>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -1929,27 +1929,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>18</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>18</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>36</v>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Greece</t>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2011,26 +2011,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -2326,14 +2326,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">

--- a/questions/recommended1.xlsx
+++ b/questions/recommended1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -904,26 +904,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -945,26 +945,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1273,26 +1273,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
         <v>8</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1314,26 +1314,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1478,14 +1478,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1519,14 +1519,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1560,14 +1560,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1601,14 +1601,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1847,27 +1847,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>18</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>18</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>36</v>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Greece</t>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1888,26 +1888,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -1929,26 +1929,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>January</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2011,27 +2011,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>18</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>18</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>36</v>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Greece</t>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2326,14 +2326,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">

--- a/questions/recommended1.xlsx
+++ b/questions/recommended1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,26 +494,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,39 +522,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1912.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL55_447 | National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,43 +563,43 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1687.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -608,51 +608,51 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>787.5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>20</v>
@@ -699,14 +699,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STL107_403 | Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -715,39 +715,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STL107_403 | Archaeological Museum &amp; Knossos Entry Ticket and Audio Guide</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -756,14 +756,14 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -772,23 +772,23 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TO107_403 | Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -797,92 +797,92 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>337.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -891,27 +891,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -932,43 +932,43 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -977,23 +977,23 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
+          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1002,39 +1002,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
+          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1043,23 +1043,23 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1068,26 +1068,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>TO107_403 | Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STL51_181_459 | Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1137,27 +1137,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1178,24 +1178,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STL55_447 | National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1232,124 +1232,124 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>January</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>36</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>12</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>152</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1383,84 +1383,84 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STL278_447 | Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>STL454_433 | Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1469,23 +1469,23 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1506,27 +1506,27 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1547,24 +1547,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
+          <t>STL107_226 | Knossos Palace: E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1576,39 +1576,39 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL107_403 | Archaeological Museum &amp; Knossos Entry Ticket and Audio Guide</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1617,92 +1617,92 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STL512_490 | Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>April</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace: E-ticket with Audio and Heraklion City Tour</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1711,39 +1711,39 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1756,35 +1756,35 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1793,39 +1793,39 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1838,35 +1838,35 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1875,39 +1875,39 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL107_403 | Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1916,24 +1916,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL278_447 | Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
@@ -1970,108 +1970,108 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>36</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>12</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>18</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>72</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2084,92 +2084,92 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2203,20 +2203,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>STL454_433 | Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2229,130 +2229,130 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>STL512_490 | Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>STL51_181_459 | Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">

--- a/questions/recommended1.xlsx
+++ b/questions/recommended1.xlsx
@@ -494,26 +494,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,39 +522,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1402.5</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STL55_447 | National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,43 +563,43 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1237.5</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -608,35 +608,35 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira w/ Entry Ticket</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -645,68 +645,68 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira w/ Entry Ticket</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>April</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>577.5</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
+          <t>STL107_403 | Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -715,39 +715,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL107_403 | Archaeological Museum &amp; Knossos Entry Ticket and Audio Guide</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -756,14 +756,14 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -772,35 +772,35 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -809,39 +809,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -850,27 +850,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K12" t="n">
         <v>6</v>
@@ -945,14 +945,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>STL543_490 | Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -961,23 +961,23 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
@@ -986,14 +986,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
+          <t>TO107_403 | Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1014,39 +1014,39 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1055,20 +1055,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TO107_403 | Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>STL51_181_459 | Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1096,39 +1096,39 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1137,27 +1137,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1178,24 +1178,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
+          <t>STL55_447 | National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1232,124 +1232,124 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1383,84 +1383,84 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL278_447 | Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Sintra: Moorish Castle &amp; Quinta da Regaleira e-Tickets</t>
+          <t>STL454_433 | Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1469,23 +1469,23 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL539_537 | Quinta da Regaleira Ticket with Audio Guide &amp; Sintra Tour</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1506,27 +1506,27 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STL526_539_537 | Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1551,23 +1551,23 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>STL107_226 | Knossos Palace: E-ticket with Audio and Heraklion City Tour</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira Ticket &amp; Sintra Smartphone Tour</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1579,36 +1579,36 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>STL107_403 | Archaeological Museum &amp; Knossos Entry Ticket and Audio Guide</t>
+          <t>STL539_537 | Sintra: Quinta da Regaleira e-Ticket &amp; Sintra City Audios</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1617,92 +1617,92 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL512_490 | Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL107_226 | Knossos Palace: E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1711,39 +1711,39 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>STL107_226 | Knossos Palace E-ticket with Audio and Heraklion City Tour</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1756,35 +1756,35 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="K32" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1793,39 +1793,39 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K33" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1834,39 +1834,39 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>STL107_403 | Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1875,27 +1875,27 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K35" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STL107_403 | Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1916,39 +1916,39 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STL278_447 | Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
@@ -1970,61 +1970,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>TO240_181_51_278 | Acropolis, Acropolis Museum &amp; 6 Archaeological Sites Tickets</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2034,44 +2034,44 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
+          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>16</v>
-      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2084,92 +2084,92 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K40" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>STL616_51 | Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2203,20 +2203,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>February</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>STL454_433 | Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+          <t>STL340_309_427 | Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2229,130 +2229,130 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>STL512_490 | Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>STL51_181_459 | Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TO240_181_51_459 | Acropolis &amp; 6 Archaeological Sites Combo Ticket</t>
+          <t>STL309_427 | Royal Alcázares: E-ticket with audio and Seville City Tour</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
